--- a/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T14:32:57+00:00</t>
+    <t>2024-04-30T14:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T14:33:35+00:00</t>
+    <t>2024-05-02T07:44:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="461">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T07:44:53+00:00</t>
+    <t>2024-05-03T07:57:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -643,7 +643,7 @@
 - TRE_A00-ProducteurDocNonPS, OID : 1.2.250.1.213.1.1.4.6 
 - TRE_R209-TypeActivite, OID : 1.2.250.1.213.2.2 
 - TRE_R02-SecteurActivite, OID : 1.2.250.1.71.4.2.4 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J59-ContentTypeCode-DMP). 
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J03-XdsContentTypeCode-CISIS peut être utilisé. {f:extension[designationType]}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J03-XdsContentTypeCode-CISIS peut être utilisé. {null}</t>
   </si>
   <si>
     <t>typeActivite : [1..1] Code</t>
@@ -746,58 +746,67 @@
 </t>
   </si>
   <si>
+    <t>Intended recipient of the SubmissionSet</t>
+  </si>
+  <si>
+    <t>holds the identity of the organization or person the SubmissionSet is intended. For XDR and eMail (e.g. Direct) this tends to be a Practitioner or Patient with a telecom holding an email, but this is not strictly required.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.intendedRecipient</t>
+  </si>
+  <si>
+    <t>List.extension:isArchived</t>
+  </si>
+  <si>
+    <t>isArchived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/pdsm-ext-is-archived}
+</t>
+  </si>
+  <si>
+    <t>Extension définie par ce volet pour distinguer les lots de soumission archivés des actives.</t>
+  </si>
+  <si>
+    <t>Extension définie par le volet ANS "Volet Partage de documents de santé en mobilité" sur les ressources List et DocumentReference pour distinguer les lots de soumission et les fiches archivés des actives.</t>
+  </si>
+  <si>
+    <t>statut : [1..1] Code</t>
+  </si>
+  <si>
+    <t>List.extension:PDSmintendedRecipient</t>
+  </si>
+  <si>
+    <t>PDSmintendedRecipient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/pdsm-ext-intended-recipient}
+</t>
+  </si>
+  <si>
     <t>Représente le destinataire du lot de soumission. Il peut s'agir d'un AsPractitioner associé à un AsPractitionerRole ou bien d'une AsOrganization.</t>
   </si>
   <si>
-    <t>holds the identity of the organization or person the SubmissionSet is intended. For XDR and eMail (e.g. Direct) this tends to be a Practitioner or Patient with a telecom holding an email, but this is not strictly required.</t>
-  </si>
-  <si>
-    <t>List.extension:intendedRecipient.id</t>
-  </si>
-  <si>
-    <t>List.extension:intendedRecipient.extension</t>
-  </si>
-  <si>
-    <t>List.extension:intendedRecipient.url</t>
-  </si>
-  <si>
-    <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/ihe-intendedRecipient</t>
-  </si>
-  <si>
-    <t>List.extension:intendedRecipient.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|Organization|Patient|RelatedPerson|Group|Device|Location) &lt;&lt;contained&gt;&gt;
+    <t>Représente le destinataire du lot de soumission</t>
+  </si>
+  <si>
+    <t>List.extension:PDSmintendedRecipient.id</t>
+  </si>
+  <si>
+    <t>List.extension:PDSmintendedRecipient.extension</t>
+  </si>
+  <si>
+    <t>List.extension:PDSmintendedRecipient.url</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/pdsm-ext-intended-recipient</t>
+  </si>
+  <si>
+    <t>List.extension:PDSmintendedRecipient.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization) &lt;&lt;contained&gt;&gt;
 </t>
-  </si>
-  <si>
-    <t>List.extension:intendedRecipient.value[x]:valueReference</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>List.extension:isArchived</t>
-  </si>
-  <si>
-    <t>isArchived</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/pdsm-is-archived}
-</t>
-  </si>
-  <si>
-    <t>Extension définie par ce volet pour distinguer les lots de soumission archivés des actives.</t>
-  </si>
-  <si>
-    <t>Extension définie par le volet ANS "Volet Partage de documents de santé en mobilité" sur les ressources List et DocumentReference pour distinguer les lots de soumission et les fiches archivés des actives.</t>
-  </si>
-  <si>
-    <t>statut : [1..1] Code</t>
   </si>
   <si>
     <t>List.modifierExtension</t>
@@ -998,7 +1007,7 @@
     <t>List.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
 </t>
   </si>
   <si>
@@ -1083,7 +1092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|Device|http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|Device|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1165,6 +1174,13 @@
   </si>
   <si>
     <t>List.source.extension:authorOrg.value[x]:valueReference</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
   </si>
   <si>
     <t>List.source.reference</t>
@@ -1770,7 +1786,7 @@
   <cols>
     <col min="1" max="1" width="59.5625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.06640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.24609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1778,7 +1794,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="192.21875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="254.671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4554,7 +4570,7 @@
         <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>78</v>
@@ -4644,17 +4660,19 @@
         <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4675,13 +4693,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>101</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>102</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4732,25 +4750,25 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4761,12 +4779,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4775,10 +4795,10 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>78</v>
@@ -4787,13 +4807,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>108</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4832,19 +4852,19 @@
         <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4873,10 +4893,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4884,7 +4904,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -4899,24 +4919,22 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>78</v>
@@ -4958,10 +4976,10 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>87</v>
@@ -4976,7 +4994,7 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -4987,10 +5005,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4998,10 +5016,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5013,13 +5031,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5058,35 +5076,37 @@
         <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AC29" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="AD29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5097,14 +5117,12 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5125,22 +5143,24 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>78</v>
@@ -5182,10 +5202,10 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>87</v>
@@ -5194,7 +5214,7 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -5211,14 +5231,12 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5239,13 +5257,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5296,25 +5314,25 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5325,10 +5343,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5408,7 +5426,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5437,10 +5455,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5463,13 +5481,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5508,7 +5526,7 @@
         <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
@@ -5518,7 +5536,7 @@
         <v>114</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5536,24 +5554,24 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>78</v>
@@ -5575,13 +5593,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5632,7 +5650,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5647,10 +5665,10 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5661,13 +5679,13 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>78</v>
@@ -5689,13 +5707,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5746,7 +5764,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5761,10 +5779,10 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5775,10 +5793,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5804,13 +5822,13 @@
         <v>164</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5821,7 +5839,7 @@
         <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>78</v>
@@ -5836,13 +5854,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5860,7 +5878,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -5875,24 +5893,24 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5918,16 +5936,16 @@
         <v>164</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5937,7 +5955,7 @@
         <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>78</v>
@@ -5952,13 +5970,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -5976,7 +5994,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>87</v>
@@ -5994,21 +6012,21 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6034,14 +6052,14 @@
         <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6054,7 +6072,7 @@
         <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>78</v>
@@ -6090,7 +6108,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6105,24 +6123,24 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6148,16 +6166,16 @@
         <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6167,7 +6185,7 @@
         <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>78</v>
@@ -6182,11 +6200,11 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6204,7 +6222,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6222,21 +6240,21 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6259,19 +6277,19 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6320,7 +6338,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6335,24 +6353,24 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6375,13 +6393,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6432,7 +6450,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6450,10 +6468,10 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>105</v>
@@ -6461,10 +6479,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6487,19 +6505,19 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6548,7 +6566,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6563,28 +6581,28 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6603,19 +6621,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6664,7 +6682,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6682,21 +6700,21 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6805,10 +6823,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6919,13 +6937,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
@@ -6947,13 +6965,13 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7019,7 +7037,7 @@
         <v>116</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>78</v>
@@ -7033,10 +7051,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7145,10 +7163,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7257,10 +7275,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7300,7 +7318,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>78</v>
@@ -7371,10 +7389,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7397,7 +7415,7 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>215</v>
@@ -7481,13 +7499,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>241</v>
+        <v>369</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>78</v>
@@ -7509,7 +7527,7 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>242</v>
+        <v>370</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>215</v>
@@ -7595,10 +7613,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7624,13 +7642,13 @@
         <v>101</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7680,7 +7698,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7689,7 +7707,7 @@
         <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>99</v>
@@ -7709,10 +7727,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7738,13 +7756,13 @@
         <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7773,10 +7791,10 @@
         <v>146</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -7794,7 +7812,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7823,10 +7841,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7849,16 +7867,16 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7908,7 +7926,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7926,7 +7944,7 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -7937,10 +7955,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7966,13 +7984,13 @@
         <v>101</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8022,7 +8040,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8051,10 +8069,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8080,16 +8098,16 @@
         <v>214</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8117,28 +8135,28 @@
         <v>168</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8156,7 +8174,7 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8167,10 +8185,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8193,13 +8211,13 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8250,7 +8268,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8265,24 +8283,24 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8305,16 +8323,16 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8364,7 +8382,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8373,7 +8391,7 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>99</v>
@@ -8382,7 +8400,7 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8393,10 +8411,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8505,10 +8523,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8619,14 +8637,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8648,16 +8666,16 @@
         <v>108</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>111</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8706,7 +8724,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8735,10 +8753,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8764,16 +8782,16 @@
         <v>214</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -8801,28 +8819,28 @@
         <v>154</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8840,7 +8858,7 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -8851,10 +8869,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8877,71 +8895,71 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="O63" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q63" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="P63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q63" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
@@ -8949,7 +8967,7 @@
         <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>99</v>
@@ -8958,7 +8976,7 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -8969,10 +8987,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8995,17 +9013,17 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9054,7 +9072,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9072,7 +9090,7 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9083,10 +9101,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9109,13 +9127,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9166,7 +9184,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>87</v>
@@ -9181,24 +9199,24 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9224,16 +9242,16 @@
         <v>214</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9261,29 +9279,29 @@
         <v>168</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9291,7 +9309,7 @@
         <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>99</v>
@@ -9300,7 +9318,7 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>

--- a/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T07:57:36+00:00</t>
+    <t>2024-05-28T08:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T08:41:18+00:00</t>
+    <t>2024-05-28T14:01:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:01:49+00:00</t>
+    <t>2024-05-29T09:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T09:54:05+00:00</t>
+    <t>2024-05-29T09:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="463">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T10:13:28+00:00</t>
+    <t>2024-06-03T14:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
   </si>
   <si>
     <t>Description</t>
@@ -1612,7 +1618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1712,21 +1718,21 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1766,6 +1772,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7504 +1841,7504 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="B51" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="C51" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q63" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>432</v>
-      </c>
       <c r="AG63" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:03:18+00:00</t>
+    <t>2024-06-03T14:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:20:42+00:00</t>
+    <t>2024-10-31T16:32:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T16:32:22+00:00</t>
+    <t>2024-10-31T16:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
